--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H2">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I2">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J2">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N2">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O2">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P2">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q2">
-        <v>0.07972014274200001</v>
+        <v>0.05837583093866666</v>
       </c>
       <c r="R2">
-        <v>0.717481284678</v>
+        <v>0.525382478448</v>
       </c>
       <c r="S2">
-        <v>0.05126603284791124</v>
+        <v>0.1040394038501245</v>
       </c>
       <c r="T2">
-        <v>0.05126603284791123</v>
+        <v>0.1040394038501245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H3">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I3">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J3">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.218696</v>
       </c>
       <c r="O3">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P3">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q3">
-        <v>0.009222629016000001</v>
+        <v>0.01839729070933333</v>
       </c>
       <c r="R3">
-        <v>0.083003661144</v>
+        <v>0.165575616384</v>
       </c>
       <c r="S3">
-        <v>0.005930842392097975</v>
+        <v>0.03278828116155621</v>
       </c>
       <c r="T3">
-        <v>0.005930842392097975</v>
+        <v>0.03278828116155622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H4">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I4">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J4">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N4">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O4">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P4">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q4">
-        <v>0.002586052233000001</v>
+        <v>0.000346501264</v>
       </c>
       <c r="R4">
-        <v>0.023274470097</v>
+        <v>0.003118511376</v>
       </c>
       <c r="S4">
-        <v>0.001663025606369683</v>
+        <v>0.0006175464119346035</v>
       </c>
       <c r="T4">
-        <v>0.001663025606369683</v>
+        <v>0.0006175464119346035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I5">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J5">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N5">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O5">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P5">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q5">
-        <v>0.2061983287306667</v>
+        <v>0.07569218062844446</v>
       </c>
       <c r="R5">
-        <v>1.855784958576</v>
+        <v>0.6812296256560001</v>
       </c>
       <c r="S5">
-        <v>0.1326009955614582</v>
+        <v>0.1349011949307111</v>
       </c>
       <c r="T5">
-        <v>0.1326009955614582</v>
+        <v>0.1349011949307111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I6">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J6">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.218696</v>
       </c>
       <c r="O6">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P6">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q6">
         <v>0.02385458209422223</v>
@@ -827,10 +827,10 @@
         <v>0.214691238848</v>
       </c>
       <c r="S6">
-        <v>0.01534028599488821</v>
+        <v>0.04251445264709446</v>
       </c>
       <c r="T6">
-        <v>0.01534028599488821</v>
+        <v>0.04251445264709446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I7">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J7">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N7">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O7">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P7">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q7">
-        <v>0.006688894802666667</v>
+        <v>0.0004492858746666667</v>
       </c>
       <c r="R7">
-        <v>0.06020005322400001</v>
+        <v>0.004043572872</v>
       </c>
       <c r="S7">
-        <v>0.00430146119757348</v>
+        <v>0.0008007326629356828</v>
       </c>
       <c r="T7">
-        <v>0.00430146119757348</v>
+        <v>0.0008007326629356827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H8">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I8">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J8">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N8">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O8">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P8">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q8">
-        <v>0.3947207686273332</v>
+        <v>0.06191861063599999</v>
       </c>
       <c r="R8">
-        <v>3.552486917646</v>
+        <v>0.557267495724</v>
       </c>
       <c r="S8">
-        <v>0.2538350684555481</v>
+        <v>0.1103534670806787</v>
       </c>
       <c r="T8">
-        <v>0.2538350684555481</v>
+        <v>0.1103534670806788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H9">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I9">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J9">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.218696</v>
       </c>
       <c r="O9">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P9">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q9">
-        <v>0.04566428368977777</v>
+        <v>0.019513806688</v>
       </c>
       <c r="R9">
-        <v>0.410978553208</v>
+        <v>0.175624260192</v>
       </c>
       <c r="S9">
-        <v>0.02936556041040718</v>
+        <v>0.03477817415223013</v>
       </c>
       <c r="T9">
-        <v>0.02936556041040718</v>
+        <v>0.03477817415223013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H10">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I10">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J10">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N10">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O10">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P10">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q10">
-        <v>0.01280439911433333</v>
+        <v>0.000367530132</v>
       </c>
       <c r="R10">
-        <v>0.115239592029</v>
+        <v>0.003307771188</v>
       </c>
       <c r="S10">
-        <v>0.008234189290372935</v>
+        <v>0.0006550247802110505</v>
       </c>
       <c r="T10">
-        <v>0.008234189290372937</v>
+        <v>0.0006550247802110505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H11">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I11">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J11">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N11">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O11">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P11">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q11">
-        <v>0.144810464406</v>
+        <v>0.007916279087777778</v>
       </c>
       <c r="R11">
-        <v>1.303294179654</v>
+        <v>0.07124651178999999</v>
       </c>
       <c r="S11">
-        <v>0.09312399312913007</v>
+        <v>0.01410866353009928</v>
       </c>
       <c r="T11">
-        <v>0.09312399312913006</v>
+        <v>0.01410866353009928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H12">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I12">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J12">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.218696</v>
       </c>
       <c r="O12">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P12">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q12">
-        <v>0.016752769688</v>
+        <v>0.002494835368888889</v>
       </c>
       <c r="R12">
-        <v>0.150774927192</v>
+        <v>0.02245351832</v>
       </c>
       <c r="S12">
-        <v>0.01077328779876885</v>
+        <v>0.004446380981816205</v>
       </c>
       <c r="T12">
-        <v>0.01077328779876885</v>
+        <v>0.004446380981816205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H13">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I13">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J13">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N13">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O13">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P13">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q13">
-        <v>0.004697525769</v>
+        <v>4.698863666666667E-05</v>
       </c>
       <c r="R13">
-        <v>0.042277731921</v>
+        <v>0.00042289773</v>
       </c>
       <c r="S13">
-        <v>0.003020861504937915</v>
+        <v>8.374475648434793E-05</v>
       </c>
       <c r="T13">
-        <v>0.003020861504937915</v>
+        <v>8.37447564843479E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H14">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I14">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J14">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N14">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O14">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P14">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q14">
-        <v>0.3192025694419999</v>
+        <v>0.1518067375775556</v>
       </c>
       <c r="R14">
-        <v>2.872823124977999</v>
+        <v>1.366260638198</v>
       </c>
       <c r="S14">
-        <v>0.2052712005686091</v>
+        <v>0.2705551633962218</v>
       </c>
       <c r="T14">
-        <v>0.2052712005686091</v>
+        <v>0.2705551633962218</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H15">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I15">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J15">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.218696</v>
       </c>
       <c r="O15">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P15">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q15">
-        <v>0.03692776728266666</v>
+        <v>0.04784227715377778</v>
       </c>
       <c r="R15">
-        <v>0.3323499055439999</v>
+        <v>0.430580494384</v>
       </c>
       <c r="S15">
-        <v>0.02374732489679579</v>
+        <v>0.08526614377688481</v>
       </c>
       <c r="T15">
-        <v>0.02374732489679579</v>
+        <v>0.08526614377688482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H16">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I16">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J16">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N16">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O16">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P16">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q16">
-        <v>0.010354654283</v>
+        <v>0.0009010788473333335</v>
       </c>
       <c r="R16">
-        <v>0.09319188854699999</v>
+        <v>0.008109709626000002</v>
       </c>
       <c r="S16">
-        <v>0.006658819569842192</v>
+        <v>0.001605933561734045</v>
       </c>
       <c r="T16">
-        <v>0.006658819569842192</v>
+        <v>0.001605933561734045</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H17">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I17">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J17">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N17">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O17">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P17">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q17">
-        <v>0.20975270458</v>
+        <v>0.06901103229655556</v>
       </c>
       <c r="R17">
-        <v>1.88777434122</v>
+        <v>0.621099290669</v>
       </c>
       <c r="S17">
-        <v>0.1348867259023516</v>
+        <v>0.1229938237069199</v>
       </c>
       <c r="T17">
-        <v>0.1348867259023516</v>
+        <v>0.12299382370692</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H18">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I18">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J18">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.218696</v>
       </c>
       <c r="O18">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P18">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q18">
-        <v>0.02426577917333334</v>
+        <v>0.02174900130577778</v>
       </c>
       <c r="R18">
-        <v>0.21839201256</v>
+        <v>0.195741011752</v>
       </c>
       <c r="S18">
-        <v>0.01560471656713265</v>
+        <v>0.03876181450104053</v>
       </c>
       <c r="T18">
-        <v>0.01560471656713265</v>
+        <v>0.03876181450104053</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H19">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I19">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J19">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N19">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O19">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P19">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q19">
-        <v>0.006804195670000001</v>
+        <v>0.0004096286003333334</v>
       </c>
       <c r="R19">
-        <v>0.06123776103</v>
+        <v>0.003686657403</v>
       </c>
       <c r="S19">
-        <v>0.004375608305804749</v>
+        <v>0.0007300541113225023</v>
       </c>
       <c r="T19">
-        <v>0.004375608305804749</v>
+        <v>0.0007300541113225023</v>
       </c>
     </row>
   </sheetData>
